--- a/Code/Results/Cases/Case_3_183/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_183/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.17480236632055</v>
+        <v>15.35259670456812</v>
       </c>
       <c r="C2">
-        <v>18.56906758500715</v>
+        <v>11.05471106320757</v>
       </c>
       <c r="D2">
-        <v>4.165589707278243</v>
+        <v>3.954914517926018</v>
       </c>
       <c r="F2">
-        <v>15.48205602482402</v>
+        <v>19.67778227069487</v>
       </c>
       <c r="G2">
-        <v>18.90107820982286</v>
+        <v>20.97154831804307</v>
       </c>
       <c r="H2">
-        <v>7.038057053856795</v>
+        <v>12.20958598802698</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.49369729565305</v>
+        <v>14.55024892360874</v>
       </c>
       <c r="C3">
-        <v>17.41294160156709</v>
+        <v>10.42464483441121</v>
       </c>
       <c r="D3">
-        <v>4.025926608294136</v>
+        <v>3.907313108897109</v>
       </c>
       <c r="F3">
-        <v>15.02949068624855</v>
+        <v>19.78596875342462</v>
       </c>
       <c r="G3">
-        <v>18.12722033803542</v>
+        <v>21.12163510619469</v>
       </c>
       <c r="H3">
-        <v>7.156928091384378</v>
+        <v>12.30714116187034</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.40295490536946</v>
+        <v>14.03484800502957</v>
       </c>
       <c r="C4">
-        <v>16.66513453706166</v>
+        <v>10.01613215880271</v>
       </c>
       <c r="D4">
-        <v>3.938811404551828</v>
+        <v>3.878092114071695</v>
       </c>
       <c r="F4">
-        <v>14.79075162877212</v>
+        <v>19.8644957982199</v>
       </c>
       <c r="G4">
-        <v>17.72179786470412</v>
+        <v>21.23401038554954</v>
       </c>
       <c r="H4">
-        <v>7.24536066154992</v>
+        <v>12.37131111784548</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.94364461638484</v>
+        <v>13.81930334204596</v>
       </c>
       <c r="C5">
-        <v>16.35087267328725</v>
+        <v>9.844286739314906</v>
       </c>
       <c r="D5">
-        <v>3.903003198126371</v>
+        <v>3.866196879765517</v>
       </c>
       <c r="F5">
-        <v>14.70313933689619</v>
+        <v>19.89950288517872</v>
       </c>
       <c r="G5">
-        <v>17.57406005377046</v>
+        <v>21.28479675982666</v>
       </c>
       <c r="H5">
-        <v>7.284970286092478</v>
+        <v>12.3985304774682</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.86647830344214</v>
+        <v>13.78318607602989</v>
       </c>
       <c r="C6">
-        <v>16.29811543091845</v>
+        <v>9.815429823606001</v>
       </c>
       <c r="D6">
-        <v>3.897039758412722</v>
+        <v>3.864222763698191</v>
       </c>
       <c r="F6">
-        <v>14.68916924776187</v>
+        <v>19.9054962985752</v>
       </c>
       <c r="G6">
-        <v>17.55057757405006</v>
+        <v>21.29352855041142</v>
       </c>
       <c r="H6">
-        <v>7.291754531987765</v>
+        <v>12.40311470778541</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.39682063898621</v>
+        <v>14.03196312018985</v>
       </c>
       <c r="C7">
-        <v>16.66093481679648</v>
+        <v>10.01383624102681</v>
       </c>
       <c r="D7">
-        <v>3.938329681176675</v>
+        <v>3.877931625486328</v>
       </c>
       <c r="F7">
-        <v>14.78953116391567</v>
+        <v>19.86495579092224</v>
       </c>
       <c r="G7">
-        <v>17.7197349088421</v>
+        <v>21.23467521918442</v>
       </c>
       <c r="H7">
-        <v>7.245880780735728</v>
+        <v>12.37167388261005</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.60724087970934</v>
+        <v>15.08078332551884</v>
       </c>
       <c r="C8">
-        <v>18.17831235421783</v>
+        <v>10.84199488258315</v>
       </c>
       <c r="D8">
-        <v>4.117735578012759</v>
+        <v>3.938506755290284</v>
       </c>
       <c r="F8">
-        <v>15.31781486541453</v>
+        <v>19.71255245303171</v>
       </c>
       <c r="G8">
-        <v>18.6198110210806</v>
+        <v>21.01904728188246</v>
       </c>
       <c r="H8">
-        <v>7.075644319104679</v>
+        <v>12.24233400150661</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.4826071016533</v>
+        <v>16.94961241506683</v>
       </c>
       <c r="C9">
-        <v>20.85332178120711</v>
+        <v>12.29191387894728</v>
       </c>
       <c r="D9">
-        <v>4.457492152655221</v>
+        <v>4.056869303221662</v>
       </c>
       <c r="F9">
-        <v>16.66763183993735</v>
+        <v>19.51121883876821</v>
       </c>
       <c r="G9">
-        <v>20.93090060134079</v>
+        <v>20.7604943286201</v>
       </c>
       <c r="H9">
-        <v>6.879331342879009</v>
+        <v>12.022782784833</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.05776530478707</v>
+        <v>18.20032718279803</v>
       </c>
       <c r="C10">
-        <v>22.63753532788952</v>
+        <v>13.24881477896925</v>
       </c>
       <c r="D10">
-        <v>4.698454577219327</v>
+        <v>4.142942508119759</v>
       </c>
       <c r="F10">
-        <v>17.85088132484938</v>
+        <v>19.42468635532752</v>
       </c>
       <c r="G10">
-        <v>23.15538527144015</v>
+        <v>20.67546055803807</v>
       </c>
       <c r="H10">
-        <v>6.840609768032431</v>
+        <v>11.88253583045466</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.17210508123015</v>
+        <v>18.7415953518525</v>
       </c>
       <c r="C11">
-        <v>23.41069223576784</v>
+        <v>13.66033269598546</v>
       </c>
       <c r="D11">
-        <v>4.806026025369969</v>
+        <v>4.181777102192251</v>
       </c>
       <c r="F11">
-        <v>18.61932193138455</v>
+        <v>19.39901398204984</v>
       </c>
       <c r="G11">
-        <v>24.22923025073862</v>
+        <v>20.66041581423739</v>
       </c>
       <c r="H11">
-        <v>6.850751968157613</v>
+        <v>11.82336945108617</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.58603416347565</v>
+        <v>18.94250615600754</v>
       </c>
       <c r="C12">
-        <v>23.69801536419721</v>
+        <v>13.81273004559808</v>
       </c>
       <c r="D12">
-        <v>4.846459490074744</v>
+        <v>4.196426148077494</v>
       </c>
       <c r="F12">
-        <v>18.91342406102752</v>
+        <v>19.39128725691687</v>
       </c>
       <c r="G12">
-        <v>24.64229092666998</v>
+        <v>20.65817499740229</v>
       </c>
       <c r="H12">
-        <v>6.858980872449061</v>
+        <v>11.80163643759137</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.49724225493067</v>
+        <v>18.89941781704681</v>
       </c>
       <c r="C13">
-        <v>23.63637635169376</v>
+        <v>13.78006153937591</v>
       </c>
       <c r="D13">
-        <v>4.837764893642698</v>
+        <v>4.193273905467676</v>
       </c>
       <c r="F13">
-        <v>18.85000224340289</v>
+        <v>19.39286224213386</v>
       </c>
       <c r="G13">
-        <v>24.55304945725111</v>
+        <v>20.65850307444238</v>
       </c>
       <c r="H13">
-        <v>6.857007276208979</v>
+        <v>11.80628704817692</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.20631955926032</v>
+        <v>18.75820605735063</v>
       </c>
       <c r="C14">
-        <v>23.43443929017399</v>
+        <v>13.67293944196205</v>
       </c>
       <c r="D14">
-        <v>4.809358578042778</v>
+        <v>4.182983485827503</v>
       </c>
       <c r="F14">
-        <v>18.64348105964058</v>
+        <v>19.3983381817929</v>
       </c>
       <c r="G14">
-        <v>24.26308584110492</v>
+        <v>20.66016189971151</v>
       </c>
       <c r="H14">
-        <v>6.851338787790219</v>
+        <v>11.82156796082258</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.02707815867137</v>
+        <v>18.67117966672821</v>
       </c>
       <c r="C15">
-        <v>23.31003928473294</v>
+        <v>13.60687628047452</v>
       </c>
       <c r="D15">
-        <v>4.791919489746768</v>
+        <v>4.176672601834227</v>
       </c>
       <c r="F15">
-        <v>18.5172204023259</v>
+        <v>19.40195286128415</v>
       </c>
       <c r="G15">
-        <v>24.08630280383268</v>
+        <v>20.6616296165139</v>
       </c>
       <c r="H15">
-        <v>6.848449734831593</v>
+        <v>11.83101565295008</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.98380518388429</v>
+        <v>18.16439017701667</v>
       </c>
       <c r="C16">
-        <v>22.58623971216566</v>
+        <v>13.22144108917642</v>
       </c>
       <c r="D16">
-        <v>4.691382631622529</v>
+        <v>4.140397205892286</v>
       </c>
       <c r="F16">
-        <v>17.81384801139458</v>
+        <v>19.42664190693616</v>
       </c>
       <c r="G16">
-        <v>23.08612081677264</v>
+        <v>20.67692453846371</v>
       </c>
       <c r="H16">
-        <v>6.840539655279959</v>
+        <v>11.88649620858929</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.32927684925349</v>
+        <v>17.84634175541544</v>
       </c>
       <c r="C17">
-        <v>22.13240631830831</v>
+        <v>12.97888499060563</v>
       </c>
       <c r="D17">
-        <v>4.629175973121477</v>
+        <v>4.118053630357637</v>
       </c>
       <c r="F17">
-        <v>17.49385857481452</v>
+        <v>19.44531403506329</v>
       </c>
       <c r="G17">
-        <v>22.48429844183444</v>
+        <v>20.69240551261463</v>
       </c>
       <c r="H17">
-        <v>6.843081617420603</v>
+        <v>11.92172236691568</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.94742310138913</v>
+        <v>17.66080589830431</v>
       </c>
       <c r="C18">
-        <v>21.8677447061656</v>
+        <v>12.83713528092515</v>
       </c>
       <c r="D18">
-        <v>4.593204118278127</v>
+        <v>4.105172645954794</v>
       </c>
       <c r="F18">
-        <v>17.3136627132195</v>
+        <v>19.45734110047372</v>
       </c>
       <c r="G18">
-        <v>22.14258330529712</v>
+        <v>20.70353182015133</v>
       </c>
       <c r="H18">
-        <v>6.847132838441576</v>
+        <v>11.94241920927536</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.81720403584196</v>
+        <v>17.59754212871152</v>
       </c>
       <c r="C19">
-        <v>21.7775093944282</v>
+        <v>12.78875749081507</v>
       </c>
       <c r="D19">
-        <v>4.580991971648962</v>
+        <v>4.100806621161548</v>
       </c>
       <c r="F19">
-        <v>17.25331583882948</v>
+        <v>19.46163352169303</v>
       </c>
       <c r="G19">
-        <v>22.02765895573648</v>
+        <v>20.70767872978571</v>
       </c>
       <c r="H19">
-        <v>6.848936947854983</v>
+        <v>11.949501459332</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.39950881758766</v>
+        <v>17.8804685212838</v>
       </c>
       <c r="C20">
-        <v>22.18109267243791</v>
+        <v>13.00493724440003</v>
       </c>
       <c r="D20">
-        <v>4.63581794571977</v>
+        <v>4.120435278859007</v>
       </c>
       <c r="F20">
-        <v>17.52752375420505</v>
+        <v>19.44319292132644</v>
       </c>
       <c r="G20">
-        <v>22.54790710290965</v>
+        <v>20.69052711476213</v>
       </c>
       <c r="H20">
-        <v>6.842540144451589</v>
+        <v>11.91792734839854</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.29198762173303</v>
+        <v>18.79979395995315</v>
       </c>
       <c r="C21">
-        <v>23.49390042579969</v>
+        <v>13.70449713686395</v>
       </c>
       <c r="D21">
-        <v>4.817710418415168</v>
+        <v>4.186007655795527</v>
       </c>
       <c r="F21">
-        <v>18.70409146980699</v>
+        <v>19.3966754337083</v>
       </c>
       <c r="G21">
-        <v>24.34808304056504</v>
+        <v>20.65958045368019</v>
       </c>
       <c r="H21">
-        <v>6.852881561568624</v>
+        <v>11.81706130077661</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.48201309802981</v>
+        <v>19.37696243117153</v>
       </c>
       <c r="C22">
-        <v>24.32014994307975</v>
+        <v>14.14167136340438</v>
       </c>
       <c r="D22">
-        <v>4.934830563274411</v>
+        <v>4.228527365845408</v>
       </c>
       <c r="F22">
-        <v>19.56348499357259</v>
+        <v>19.37791095292627</v>
       </c>
       <c r="G22">
-        <v>25.56195421195731</v>
+        <v>20.65952020603583</v>
       </c>
       <c r="H22">
-        <v>6.885391835044007</v>
+        <v>11.75505933407446</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.85109986442338</v>
+        <v>19.0711026514923</v>
       </c>
       <c r="C23">
-        <v>23.88203956183992</v>
+        <v>13.91017968794877</v>
       </c>
       <c r="D23">
-        <v>4.872483228554942</v>
+        <v>4.205867949139418</v>
       </c>
       <c r="F23">
-        <v>19.10383202793978</v>
+        <v>19.38685328318072</v>
       </c>
       <c r="G23">
-        <v>24.91074848244791</v>
+        <v>20.65769099554869</v>
       </c>
       <c r="H23">
-        <v>6.865556733978842</v>
+        <v>11.7877903108704</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.36777426490678</v>
+        <v>17.86504816968817</v>
       </c>
       <c r="C24">
-        <v>22.15909324792392</v>
+        <v>12.99316618638614</v>
       </c>
       <c r="D24">
-        <v>4.632815758437276</v>
+        <v>4.119358644885473</v>
       </c>
       <c r="F24">
-        <v>17.51229197676543</v>
+        <v>19.44414785362429</v>
       </c>
       <c r="G24">
-        <v>22.51913626666603</v>
+        <v>20.69136940873242</v>
       </c>
       <c r="H24">
-        <v>6.842776907990804</v>
+        <v>11.91964169093571</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.48260613124695</v>
+        <v>16.46506296346548</v>
       </c>
       <c r="C25">
-        <v>20.1616854120395</v>
+        <v>11.91858075415373</v>
       </c>
       <c r="D25">
-        <v>4.367024197513237</v>
+        <v>4.024960173249627</v>
       </c>
       <c r="F25">
-        <v>16.26865719957951</v>
+        <v>19.5550357398526</v>
       </c>
       <c r="G25">
-        <v>20.24879738567833</v>
+        <v>20.8123309588212</v>
       </c>
       <c r="H25">
-        <v>6.915533476182839</v>
+        <v>12.07850011500087</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_183/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_183/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.35259670456812</v>
+        <v>25.17480236632056</v>
       </c>
       <c r="C2">
-        <v>11.05471106320757</v>
+        <v>18.56906758500713</v>
       </c>
       <c r="D2">
-        <v>3.954914517926018</v>
+        <v>4.16558970727815</v>
       </c>
       <c r="F2">
-        <v>19.67778227069487</v>
+        <v>15.48205602482402</v>
       </c>
       <c r="G2">
-        <v>20.97154831804307</v>
+        <v>18.90107820982285</v>
       </c>
       <c r="H2">
-        <v>12.20958598802698</v>
+        <v>7.038057053856836</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.55024892360874</v>
+        <v>23.49369729565312</v>
       </c>
       <c r="C3">
-        <v>10.42464483441121</v>
+        <v>17.41294160156701</v>
       </c>
       <c r="D3">
-        <v>3.907313108897109</v>
+        <v>4.025926608294323</v>
       </c>
       <c r="F3">
-        <v>19.78596875342462</v>
+        <v>15.02949068624834</v>
       </c>
       <c r="G3">
-        <v>21.12163510619469</v>
+        <v>18.12722033803515</v>
       </c>
       <c r="H3">
-        <v>12.30714116187034</v>
+        <v>7.156928091384374</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.03484800502957</v>
+        <v>22.40295490536925</v>
       </c>
       <c r="C4">
-        <v>10.01613215880271</v>
+        <v>16.66513453706181</v>
       </c>
       <c r="D4">
-        <v>3.878092114071695</v>
+        <v>3.938811404551901</v>
       </c>
       <c r="F4">
-        <v>19.8644957982199</v>
+        <v>14.79075162877241</v>
       </c>
       <c r="G4">
-        <v>21.23401038554954</v>
+        <v>17.72179786470449</v>
       </c>
       <c r="H4">
-        <v>12.37131111784548</v>
+        <v>7.245360661550171</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.81930334204596</v>
+        <v>21.94364461638476</v>
       </c>
       <c r="C5">
-        <v>9.844286739314906</v>
+        <v>16.35087267328737</v>
       </c>
       <c r="D5">
-        <v>3.866196879765517</v>
+        <v>3.903003198126225</v>
       </c>
       <c r="F5">
-        <v>19.89950288517872</v>
+        <v>14.70313933689628</v>
       </c>
       <c r="G5">
-        <v>21.28479675982666</v>
+        <v>17.57406005377054</v>
       </c>
       <c r="H5">
-        <v>12.3985304774682</v>
+        <v>7.284970286092545</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.78318607602989</v>
+        <v>21.86647830344213</v>
       </c>
       <c r="C6">
-        <v>9.815429823606001</v>
+        <v>16.29811543091858</v>
       </c>
       <c r="D6">
-        <v>3.864222763698191</v>
+        <v>3.897039758412723</v>
       </c>
       <c r="F6">
-        <v>19.9054962985752</v>
+        <v>14.68916924776172</v>
       </c>
       <c r="G6">
-        <v>21.29352855041142</v>
+        <v>17.55057757404992</v>
       </c>
       <c r="H6">
-        <v>12.40311470778541</v>
+        <v>7.291754531987765</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.03196312018985</v>
+        <v>22.39682063898616</v>
       </c>
       <c r="C7">
-        <v>10.01383624102681</v>
+        <v>16.6609348167965</v>
       </c>
       <c r="D7">
-        <v>3.877931625486328</v>
+        <v>3.938329681176893</v>
       </c>
       <c r="F7">
-        <v>19.86495579092224</v>
+        <v>14.78953116391573</v>
       </c>
       <c r="G7">
-        <v>21.23467521918442</v>
+        <v>17.71973490884221</v>
       </c>
       <c r="H7">
-        <v>12.37167388261005</v>
+        <v>7.245880780735769</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.08078332551884</v>
+        <v>24.60724087970943</v>
       </c>
       <c r="C8">
-        <v>10.84199488258315</v>
+        <v>18.17831235421794</v>
       </c>
       <c r="D8">
-        <v>3.938506755290284</v>
+        <v>4.117735578012692</v>
       </c>
       <c r="F8">
-        <v>19.71255245303171</v>
+        <v>15.31781486541435</v>
       </c>
       <c r="G8">
-        <v>21.01904728188246</v>
+        <v>18.61981102108042</v>
       </c>
       <c r="H8">
-        <v>12.24233400150661</v>
+        <v>7.075644319104583</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.94961241506683</v>
+        <v>28.4826071016533</v>
       </c>
       <c r="C9">
-        <v>12.29191387894728</v>
+        <v>20.85332178120714</v>
       </c>
       <c r="D9">
-        <v>4.056869303221662</v>
+        <v>4.45749215265518</v>
       </c>
       <c r="F9">
-        <v>19.51121883876821</v>
+        <v>16.66763183993723</v>
       </c>
       <c r="G9">
-        <v>20.7604943286201</v>
+        <v>20.93090060134054</v>
       </c>
       <c r="H9">
-        <v>12.022782784833</v>
+        <v>6.879331342878915</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.20032718279803</v>
+        <v>31.05776530478709</v>
       </c>
       <c r="C10">
-        <v>13.24881477896925</v>
+        <v>22.63753532788963</v>
       </c>
       <c r="D10">
-        <v>4.142942508119759</v>
+        <v>4.698454577219327</v>
       </c>
       <c r="F10">
-        <v>19.42468635532752</v>
+        <v>17.85088132484938</v>
       </c>
       <c r="G10">
-        <v>20.67546055803807</v>
+        <v>23.15538527144023</v>
       </c>
       <c r="H10">
-        <v>11.88253583045466</v>
+        <v>6.840609768032372</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.7415953518525</v>
+        <v>32.17210508123024</v>
       </c>
       <c r="C11">
-        <v>13.66033269598546</v>
+        <v>23.41069223576788</v>
       </c>
       <c r="D11">
-        <v>4.181777102192251</v>
+        <v>4.806026025370028</v>
       </c>
       <c r="F11">
-        <v>19.39901398204984</v>
+        <v>18.61932193138465</v>
       </c>
       <c r="G11">
-        <v>20.66041581423739</v>
+        <v>24.22923025073867</v>
       </c>
       <c r="H11">
-        <v>11.82336945108617</v>
+        <v>6.850751968157487</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.94250615600754</v>
+        <v>32.58603416347572</v>
       </c>
       <c r="C12">
-        <v>13.81273004559808</v>
+        <v>23.69801536419731</v>
       </c>
       <c r="D12">
-        <v>4.196426148077494</v>
+        <v>4.846459490074744</v>
       </c>
       <c r="F12">
-        <v>19.39128725691687</v>
+        <v>18.91342406102755</v>
       </c>
       <c r="G12">
-        <v>20.65817499740229</v>
+        <v>24.64229092667008</v>
       </c>
       <c r="H12">
-        <v>11.80163643759137</v>
+        <v>6.858980872448958</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.89941781704681</v>
+        <v>32.49724225493059</v>
       </c>
       <c r="C13">
-        <v>13.78006153937591</v>
+        <v>23.63637635169376</v>
       </c>
       <c r="D13">
-        <v>4.193273905467676</v>
+        <v>4.837764893642676</v>
       </c>
       <c r="F13">
-        <v>19.39286224213386</v>
+        <v>18.85000224340267</v>
       </c>
       <c r="G13">
-        <v>20.65850307444238</v>
+        <v>24.55304945725072</v>
       </c>
       <c r="H13">
-        <v>11.80628704817692</v>
+        <v>6.857007276208968</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.75820605735063</v>
+        <v>32.20631955926027</v>
       </c>
       <c r="C14">
-        <v>13.67293944196205</v>
+        <v>23.43443929017399</v>
       </c>
       <c r="D14">
-        <v>4.182983485827503</v>
+        <v>4.809358578042763</v>
       </c>
       <c r="F14">
-        <v>19.3983381817929</v>
+        <v>18.64348105964058</v>
       </c>
       <c r="G14">
-        <v>20.66016189971151</v>
+        <v>24.26308584110498</v>
       </c>
       <c r="H14">
-        <v>11.82156796082258</v>
+        <v>6.851338787790293</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.67117966672821</v>
+        <v>32.02707815867137</v>
       </c>
       <c r="C15">
-        <v>13.60687628047452</v>
+        <v>23.31003928473292</v>
       </c>
       <c r="D15">
-        <v>4.176672601834227</v>
+        <v>4.791919489746775</v>
       </c>
       <c r="F15">
-        <v>19.40195286128415</v>
+        <v>18.51722040232598</v>
       </c>
       <c r="G15">
-        <v>20.6616296165139</v>
+        <v>24.08630280383281</v>
       </c>
       <c r="H15">
-        <v>11.83101565295008</v>
+        <v>6.848449734831613</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.16439017701667</v>
+        <v>30.98380518388429</v>
       </c>
       <c r="C16">
-        <v>13.22144108917642</v>
+        <v>22.58623971216566</v>
       </c>
       <c r="D16">
-        <v>4.140397205892286</v>
+        <v>4.691382631622584</v>
       </c>
       <c r="F16">
-        <v>19.42664190693616</v>
+        <v>17.81384801139458</v>
       </c>
       <c r="G16">
-        <v>20.67692453846371</v>
+        <v>23.0861208167726</v>
       </c>
       <c r="H16">
-        <v>11.88649620858929</v>
+        <v>6.840539655279952</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.84634175541544</v>
+        <v>30.32927684925342</v>
       </c>
       <c r="C17">
-        <v>12.97888499060563</v>
+        <v>22.13240631830831</v>
       </c>
       <c r="D17">
-        <v>4.118053630357637</v>
+        <v>4.629175973121546</v>
       </c>
       <c r="F17">
-        <v>19.44531403506329</v>
+        <v>17.49385857481449</v>
       </c>
       <c r="G17">
-        <v>20.69240551261463</v>
+        <v>22.48429844183427</v>
       </c>
       <c r="H17">
-        <v>11.92172236691568</v>
+        <v>6.84308161742066</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.66080589830431</v>
+        <v>29.94742310138924</v>
       </c>
       <c r="C18">
-        <v>12.83713528092515</v>
+        <v>21.86774470616556</v>
       </c>
       <c r="D18">
-        <v>4.105172645954794</v>
+        <v>4.593204118278238</v>
       </c>
       <c r="F18">
-        <v>19.45734110047372</v>
+        <v>17.31366271321949</v>
       </c>
       <c r="G18">
-        <v>20.70353182015133</v>
+        <v>22.14258330529722</v>
       </c>
       <c r="H18">
-        <v>11.94241920927536</v>
+        <v>6.847132838441477</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.59754212871152</v>
+        <v>29.81720403584185</v>
       </c>
       <c r="C19">
-        <v>12.78875749081507</v>
+        <v>21.77750939442812</v>
       </c>
       <c r="D19">
-        <v>4.100806621161548</v>
+        <v>4.580991971648962</v>
       </c>
       <c r="F19">
-        <v>19.46163352169303</v>
+        <v>17.25331583882948</v>
       </c>
       <c r="G19">
-        <v>20.70767872978571</v>
+        <v>22.02765895573638</v>
       </c>
       <c r="H19">
-        <v>11.949501459332</v>
+        <v>6.848936947854996</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.8804685212838</v>
+        <v>30.39950881758762</v>
       </c>
       <c r="C20">
-        <v>13.00493724440003</v>
+        <v>22.18109267243775</v>
       </c>
       <c r="D20">
-        <v>4.120435278859007</v>
+        <v>4.635817945719849</v>
       </c>
       <c r="F20">
-        <v>19.44319292132644</v>
+        <v>17.52752375420511</v>
       </c>
       <c r="G20">
-        <v>20.69052711476213</v>
+        <v>22.54790710290964</v>
       </c>
       <c r="H20">
-        <v>11.91792734839854</v>
+        <v>6.842540144451697</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.79979395995315</v>
+        <v>32.29198762173308</v>
       </c>
       <c r="C21">
-        <v>13.70449713686395</v>
+        <v>23.49390042579961</v>
       </c>
       <c r="D21">
-        <v>4.186007655795527</v>
+        <v>4.817710418415124</v>
       </c>
       <c r="F21">
-        <v>19.3966754337083</v>
+        <v>18.70409146980703</v>
       </c>
       <c r="G21">
-        <v>20.65958045368019</v>
+        <v>24.34808304056513</v>
       </c>
       <c r="H21">
-        <v>11.81706130077661</v>
+        <v>6.852881561568616</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.37696243117153</v>
+        <v>33.4820130980298</v>
       </c>
       <c r="C22">
-        <v>14.14167136340438</v>
+        <v>24.32014994307975</v>
       </c>
       <c r="D22">
-        <v>4.228527365845408</v>
+        <v>4.934830563274446</v>
       </c>
       <c r="F22">
-        <v>19.37791095292627</v>
+        <v>19.56348499357248</v>
       </c>
       <c r="G22">
-        <v>20.65952020603583</v>
+        <v>25.56195421195712</v>
       </c>
       <c r="H22">
-        <v>11.75505933407446</v>
+        <v>6.885391835043933</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.0711026514923</v>
+        <v>32.85109986442346</v>
       </c>
       <c r="C23">
-        <v>13.91017968794877</v>
+        <v>23.88203956184006</v>
       </c>
       <c r="D23">
-        <v>4.205867949139418</v>
+        <v>4.872483228554865</v>
       </c>
       <c r="F23">
-        <v>19.38685328318072</v>
+        <v>19.10383202793976</v>
       </c>
       <c r="G23">
-        <v>20.65769099554869</v>
+        <v>24.91074848244796</v>
       </c>
       <c r="H23">
-        <v>11.7877903108704</v>
+        <v>6.865556733978773</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.86504816968817</v>
+        <v>30.3677742649068</v>
       </c>
       <c r="C24">
-        <v>12.99316618638614</v>
+        <v>22.15909324792387</v>
       </c>
       <c r="D24">
-        <v>4.119358644885473</v>
+        <v>4.63281575843729</v>
       </c>
       <c r="F24">
-        <v>19.44414785362429</v>
+        <v>17.51229197676548</v>
       </c>
       <c r="G24">
-        <v>20.69136940873242</v>
+        <v>22.51913626666613</v>
       </c>
       <c r="H24">
-        <v>11.91964169093571</v>
+        <v>6.842776907990824</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.46506296346548</v>
+        <v>27.48260613124699</v>
       </c>
       <c r="C25">
-        <v>11.91858075415373</v>
+        <v>20.16168541203947</v>
       </c>
       <c r="D25">
-        <v>4.024960173249627</v>
+        <v>4.367024197513294</v>
       </c>
       <c r="F25">
-        <v>19.5550357398526</v>
+        <v>16.26865719957951</v>
       </c>
       <c r="G25">
-        <v>20.8123309588212</v>
+        <v>20.24879738567842</v>
       </c>
       <c r="H25">
-        <v>12.07850011500087</v>
+        <v>6.915533476182721</v>
       </c>
       <c r="I25">
         <v>0</v>
